--- a/sample rows.xlsx
+++ b/sample rows.xlsx
@@ -1,35 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/essam/My Drive/STC/FOM/FOM temp/slides automataion/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECA5690-E8FB-5349-8D3A-48FB251C76C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="12780" yWindow="6900" windowWidth="16620" windowHeight="12220" xr2:uid="{7CDA34FC-CFFA-6F48-A106-B9B7EB3C0538}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
@@ -38,260 +22,277 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="75">
   <si>
-    <t>PCA</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>Hay</t>
-  </si>
-  <si>
-    <t>Hay ID</t>
-  </si>
-  <si>
-    <t>STC Category</t>
-  </si>
-  <si>
-    <t>Mobily Category</t>
-  </si>
-  <si>
-    <t>Dawiyat Category</t>
-  </si>
-  <si>
-    <t>TLS Category</t>
-  </si>
-  <si>
-    <t>ACES Category</t>
-  </si>
-  <si>
-    <t>Wrong Classification?</t>
-  </si>
-  <si>
-    <t>Actual Uptake %</t>
+    <t xml:space="preserve">PCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hay ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STC Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobily Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dawiyat Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TLS Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACES Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrong Classification?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actual Uptake %</t>
   </si>
   <si>
     <t xml:space="preserve">Coverage </t>
   </si>
   <si>
-    <t>Deployment Years</t>
-  </si>
-  <si>
-    <t>OLO Coverage</t>
-  </si>
-  <si>
-    <t>Population</t>
-  </si>
-  <si>
-    <t>Total Premisis (Census)</t>
-  </si>
-  <si>
-    <t>Remaining Premisis</t>
-  </si>
-  <si>
-    <t>Female %</t>
-  </si>
-  <si>
-    <t>HH Avg Size</t>
-  </si>
-  <si>
-    <t>Population Density</t>
+    <t xml:space="preserve">Deployment Years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OLO Coverage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Population</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Premisis (Census)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remaining Premisis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Female %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HH Avg Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Population Density</t>
   </si>
   <si>
     <t xml:space="preserve">ss ARPU </t>
   </si>
   <si>
-    <t>ss Usage</t>
-  </si>
-  <si>
-    <t>Income Level (Based on ARPU)</t>
-  </si>
-  <si>
-    <t>Last deployment year</t>
-  </si>
-  <si>
-    <t>Major City?</t>
-  </si>
-  <si>
-    <t>Visual Remark</t>
-  </si>
-  <si>
-    <t>Forecasted Uptake</t>
-  </si>
-  <si>
-    <t>ISP Cost</t>
-  </si>
-  <si>
-    <t>OSP Cost</t>
-  </si>
-  <si>
-    <t>Alternative Deployment OSP Cost</t>
+    <t xml:space="preserve">ss Usage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Income Level (Based on ARPU)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last deployment year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Major City?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visual Remark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forecasted Uptake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISP Cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OSP Cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alternative Deployment OSP Cost</t>
   </si>
   <si>
     <t xml:space="preserve"># of Data centers </t>
   </si>
   <si>
-    <t>Mobile Towers</t>
-  </si>
-  <si>
-    <t>Fiberized Towers</t>
-  </si>
-  <si>
-    <t>Remaining Towers</t>
-  </si>
-  <si>
-    <t>Forecast Tower Fiberization count</t>
-  </si>
-  <si>
-    <t>image</t>
-  </si>
-  <si>
-    <t>2012 Premisis Covered</t>
-  </si>
-  <si>
-    <t>2013 Premisis Covered</t>
-  </si>
-  <si>
-    <t>2014 Premisis Covered</t>
-  </si>
-  <si>
-    <t>2015 Premisis Covered</t>
-  </si>
-  <si>
-    <t>2016 Premisis Covered</t>
-  </si>
-  <si>
-    <t>2017 Premisis Covered</t>
-  </si>
-  <si>
-    <t>2018 Premisis Covered</t>
-  </si>
-  <si>
-    <t>2019 Premisis Covered</t>
-  </si>
-  <si>
-    <t>2020 Premisis Covered</t>
-  </si>
-  <si>
-    <t>2021 Premisis Covered</t>
-  </si>
-  <si>
-    <t>2022 Premisis Covered</t>
-  </si>
-  <si>
-    <t>2023 Premisis Covered</t>
-  </si>
-  <si>
-    <t>2024 Premisis Covered</t>
-  </si>
-  <si>
-    <t>2025 Premisis Covered</t>
-  </si>
-  <si>
-    <t>2026 Premisis Covered</t>
-  </si>
-  <si>
-    <t>2027 Premisis Covered</t>
-  </si>
-  <si>
-    <t>2028 Premisis Covered</t>
-  </si>
-  <si>
-    <t>2029 Premisis Covered</t>
-  </si>
-  <si>
-    <t>2030 Premisis Covered</t>
-  </si>
-  <si>
-    <t>الرياض</t>
-  </si>
-  <si>
-    <t>الورود</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>2012, 2013, 2014, 2015, 2016, 2017, 2018, 2019, 2020, 2021, 2022, 2023, 2024</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Served by FTTH</t>
-  </si>
-  <si>
-    <t>Screenshot 2025-07-28 at 7.29.56 PM.png</t>
-  </si>
-  <si>
-    <t>2017, 2020</t>
-  </si>
-  <si>
-    <t>Screenshot 2025-07-30 at 7.58.19 PM.png</t>
-  </si>
-  <si>
-    <t>الملك فهد</t>
-  </si>
-  <si>
-    <t>2013, 2014, 2015, 2016, 2017, 2018, 2019, 2020, 2021, 2022, 2023, 2024</t>
-  </si>
-  <si>
-    <t>Screenshot 2025-07-30 at 8.07.16 PM.png</t>
-  </si>
-  <si>
-    <t>Screenshot 2025-07-30 at 8.18.04 PM.png</t>
-  </si>
-  <si>
-    <t>المعذر الشمالي</t>
-  </si>
-  <si>
-    <t>2012, 2014, 2015, 2018, 2019, 2020</t>
-  </si>
-  <si>
-    <t>Screenshot 2025-07-30 at 8.20.33 PM.png</t>
+    <t xml:space="preserve">Mobile Towers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiberized Towers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remaining Towers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forecast Tower Fiberization count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012 Premisis Covered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013 Premisis Covered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014 Premisis Covered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015 Premisis Covered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016 Premisis Covered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017 Premisis Covered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018 Premisis Covered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019 Premisis Covered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020 Premisis Covered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021 Premisis Covered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022 Premisis Covered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023 Premisis Covered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024 Premisis Covered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025 Premisis Covered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026 Premisis Covered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2027 Premisis Covered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2028 Premisis Covered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2029 Premisis Covered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2030 Premisis Covered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الرياض</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الورود</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012, 2013, 2014, 2015, 2016, 2017, 2018, 2019, 2020, 2021, 2022, 2023, 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Served by FTTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017, 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الملك فهد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013, 2014, 2015, 2016, 2017, 2018, 2019, 2020, 2021, 2022, 2023, 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">المعذر الشمالي</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012, 2014, 2015, 2018, 2019, 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0%"/>
+    <numFmt numFmtId="166" formatCode="0"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -304,295 +305,284 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FF993366"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="4" tint="-0.25"/>
+        <bgColor rgb="FF333333"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="2">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+  <cellXfs count="13">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF7030A0"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF104862"/>
+      <rgbColor rgb="FF00B050"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="0e2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="e8e8e8"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="e97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="196b24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="0f9ed5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="a02b93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="4ea72e"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="96607d"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
                 <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
                 <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
                 <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
                 <a:lumMod val="102000"/>
                 <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
                 <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
               </a:schemeClr>
@@ -600,33 +590,24 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
                 <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
@@ -639,13 +620,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -655,15 +630,13 @@
         <a:solidFill>
           <a:schemeClr val="phClr">
             <a:tint val="95000"/>
-            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="93000"/>
-                <a:satMod val="150000"/>
                 <a:shade val="98000"/>
                 <a:lumMod val="102000"/>
               </a:schemeClr>
@@ -671,7 +644,6 @@
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:tint val="98000"/>
-                <a:satMod val="130000"/>
                 <a:shade val="90000"/>
                 <a:lumMod val="103000"/>
               </a:schemeClr>
@@ -679,56 +651,36 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="63000"/>
-                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AC543FE-37E6-5A49-9D5F-4241444D0718}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:BD6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:BD6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AC1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AL4" activeCellId="0" sqref="AL4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="36.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="33.87"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:56" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -898,20 +850,20 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:56" ht="119" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
+    <row r="2" customFormat="false" ht="100" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="n">
         <v>1221501</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="6" t="n">
         <v>501216</v>
       </c>
       <c r="F2" s="6" t="s">
@@ -932,44 +884,44 @@
       <c r="K2" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="8" t="n">
         <v>0.08</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="8" t="n">
         <v>0.67</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="9" t="s">
         <v>61</v>
       </c>
       <c r="O2" s="6"/>
-      <c r="P2" s="9">
-        <v>1639.0718458588919</v>
-      </c>
-      <c r="Q2" s="9">
-        <v>864.52557115545801</v>
-      </c>
-      <c r="R2" s="6">
+      <c r="P2" s="10" t="n">
+        <v>1639.07184585889</v>
+      </c>
+      <c r="Q2" s="10" t="n">
+        <v>864.525571155458</v>
+      </c>
+      <c r="R2" s="6" t="n">
         <v>285</v>
       </c>
-      <c r="S2" s="7">
-        <v>0.32231223626706473</v>
-      </c>
-      <c r="T2" s="10">
-        <v>1.978369897833129</v>
-      </c>
-      <c r="U2" s="9">
-        <v>3664.403642910795</v>
-      </c>
-      <c r="V2" s="9">
-        <v>135.37583925356901</v>
-      </c>
-      <c r="W2" s="11">
+      <c r="S2" s="8" t="n">
+        <v>0.322312236267065</v>
+      </c>
+      <c r="T2" s="11" t="n">
+        <v>1.97836989783313</v>
+      </c>
+      <c r="U2" s="10" t="n">
+        <v>3664.4036429108</v>
+      </c>
+      <c r="V2" s="10" t="n">
+        <v>135.375839253569</v>
+      </c>
+      <c r="W2" s="12" t="n">
         <v>1583637.48107039</v>
       </c>
       <c r="X2" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="Y2" s="6">
+      <c r="Y2" s="6" t="n">
         <v>2024</v>
       </c>
       <c r="Z2" s="6" t="s">
@@ -978,24 +930,24 @@
       <c r="AA2" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="AB2" s="7">
-        <v>0.44939071845858886</v>
+      <c r="AB2" s="8" t="n">
+        <v>0.449390718458589</v>
       </c>
       <c r="AC2" s="6"/>
-      <c r="AD2" s="6">
+      <c r="AD2" s="6" t="n">
         <v>200000</v>
       </c>
       <c r="AE2" s="6"/>
-      <c r="AF2" s="6">
+      <c r="AF2" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="AG2" s="6">
+      <c r="AG2" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="AH2" s="6">
+      <c r="AH2" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="AI2" s="6">
+      <c r="AI2" s="6" t="n">
         <v>0</v>
       </c>
       <c r="AJ2" s="6"/>
@@ -1022,20 +974,20 @@
       <c r="BC2" s="6"/>
       <c r="BD2" s="6"/>
     </row>
-    <row r="3" spans="1:56" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+    <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="n">
         <v>1221601</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="6" t="n">
         <v>501268</v>
       </c>
       <c r="F3" s="6" t="s">
@@ -1056,44 +1008,44 @@
       <c r="K3" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="L3" s="7">
-        <v>0.21000000000000002</v>
-      </c>
-      <c r="M3" s="7">
+      <c r="L3" s="8" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="M3" s="8" t="n">
         <v>0.6</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="9" t="s">
         <v>66</v>
       </c>
       <c r="O3" s="6"/>
-      <c r="P3" s="9">
-        <v>873.43842432846475</v>
-      </c>
-      <c r="Q3" s="9">
-        <v>454.60765426041661</v>
-      </c>
-      <c r="R3" s="6">
+      <c r="P3" s="10" t="n">
+        <v>873.438424328465</v>
+      </c>
+      <c r="Q3" s="10" t="n">
+        <v>454.607654260417</v>
+      </c>
+      <c r="R3" s="6" t="n">
         <v>182</v>
       </c>
-      <c r="S3" s="7">
-        <v>0.38528976676493032</v>
-      </c>
-      <c r="T3" s="10">
-        <v>1.830785115021722</v>
-      </c>
-      <c r="U3" s="9">
-        <v>2259.5354975402888</v>
-      </c>
-      <c r="V3" s="9">
+      <c r="S3" s="8" t="n">
+        <v>0.38528976676493</v>
+      </c>
+      <c r="T3" s="11" t="n">
+        <v>1.83078511502172</v>
+      </c>
+      <c r="U3" s="10" t="n">
+        <v>2259.53549754029</v>
+      </c>
+      <c r="V3" s="10" t="n">
         <v>148.191375498566</v>
       </c>
-      <c r="W3" s="11">
+      <c r="W3" s="12" t="n">
         <v>493745.156457968</v>
       </c>
       <c r="X3" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="Y3" s="6">
+      <c r="Y3" s="6" t="n">
         <v>2020</v>
       </c>
       <c r="Z3" s="6" t="s">
@@ -1102,24 +1054,24 @@
       <c r="AA3" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="AB3" s="7">
-        <v>0.32073438424328465</v>
+      <c r="AB3" s="8" t="n">
+        <v>0.320734384243285</v>
       </c>
       <c r="AC3" s="6"/>
-      <c r="AD3" s="6">
+      <c r="AD3" s="6" t="n">
         <v>0</v>
       </c>
       <c r="AE3" s="6"/>
-      <c r="AF3" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="6">
+      <c r="AF3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="AH3" s="6">
+      <c r="AH3" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="AI3" s="6">
+      <c r="AI3" s="6" t="n">
         <v>0</v>
       </c>
       <c r="AJ3" s="6"/>
@@ -1146,20 +1098,20 @@
       <c r="BC3" s="6"/>
       <c r="BD3" s="6"/>
     </row>
-    <row r="4" spans="1:56" ht="102" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+    <row r="4" customFormat="false" ht="86" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="n">
         <v>1227101</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="6" t="n">
         <v>502026</v>
       </c>
       <c r="F4" s="6" t="s">
@@ -1180,44 +1132,44 @@
       <c r="K4" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="L4" s="7">
-        <v>0.24000000000000002</v>
-      </c>
-      <c r="M4" s="7">
+      <c r="L4" s="8" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="M4" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="N4" s="9" t="s">
         <v>69</v>
       </c>
       <c r="O4" s="6"/>
-      <c r="P4" s="9">
-        <v>359.37928431986808</v>
-      </c>
-      <c r="Q4" s="9">
-        <v>111.44725027921309</v>
-      </c>
-      <c r="R4" s="6">
-        <v>0</v>
-      </c>
-      <c r="S4" s="7">
-        <v>0.38359662294522123</v>
-      </c>
-      <c r="T4" s="10">
-        <v>3.0799331983670108</v>
-      </c>
-      <c r="U4" s="9">
-        <v>4106.8165737378131</v>
-      </c>
-      <c r="V4" s="9">
-        <v>128.65688112074801</v>
-      </c>
-      <c r="W4" s="11">
+      <c r="P4" s="10" t="n">
+        <v>359.379284319868</v>
+      </c>
+      <c r="Q4" s="10" t="n">
+        <v>111.447250279213</v>
+      </c>
+      <c r="R4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="8" t="n">
+        <v>0.383596622945221</v>
+      </c>
+      <c r="T4" s="11" t="n">
+        <v>3.07993319836701</v>
+      </c>
+      <c r="U4" s="10" t="n">
+        <v>4106.81657373781</v>
+      </c>
+      <c r="V4" s="10" t="n">
+        <v>128.656881120748</v>
+      </c>
+      <c r="W4" s="12" t="n">
         <v>192507.488633506</v>
       </c>
       <c r="X4" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="Y4" s="6">
+      <c r="Y4" s="6" t="n">
         <v>2024</v>
       </c>
       <c r="Z4" s="6" t="s">
@@ -1226,24 +1178,24 @@
       <c r="AA4" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="AB4" s="7">
-        <v>0.45159379284319867</v>
+      <c r="AB4" s="8" t="n">
+        <v>0.451593792843199</v>
       </c>
       <c r="AC4" s="6"/>
-      <c r="AD4" s="6">
+      <c r="AD4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="AE4" s="6"/>
-      <c r="AF4" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="6">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="6">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="6">
+      <c r="AF4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="AJ4" s="6"/>
@@ -1270,20 +1222,20 @@
       <c r="BC4" s="6"/>
       <c r="BD4" s="6"/>
     </row>
-    <row r="5" spans="1:56" ht="102" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
+    <row r="5" customFormat="false" ht="86" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="n">
         <v>1227302</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="6" t="n">
         <v>502026</v>
       </c>
       <c r="F5" s="6" t="s">
@@ -1304,44 +1256,44 @@
       <c r="K5" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="L5" s="7">
-        <v>0.24000000000000002</v>
-      </c>
-      <c r="M5" s="7">
+      <c r="L5" s="8" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="M5" s="8" t="n">
         <v>0.95</v>
       </c>
-      <c r="N5" s="8" t="s">
+      <c r="N5" s="9" t="s">
         <v>69</v>
       </c>
       <c r="O5" s="6"/>
-      <c r="P5" s="9">
-        <v>1197.3630854112459</v>
-      </c>
-      <c r="Q5" s="9">
-        <v>346.46172148462728</v>
-      </c>
-      <c r="R5" s="6">
+      <c r="P5" s="10" t="n">
+        <v>1197.36308541125</v>
+      </c>
+      <c r="Q5" s="10" t="n">
+        <v>346.461721484627</v>
+      </c>
+      <c r="R5" s="6" t="n">
         <v>17</v>
       </c>
-      <c r="S5" s="7">
-        <v>0.38283729738312361</v>
-      </c>
-      <c r="T5" s="10">
-        <v>3.6174800176617978</v>
-      </c>
-      <c r="U5" s="9">
-        <v>8005.9929285878188</v>
-      </c>
-      <c r="V5" s="9">
-        <v>128.65688112074801</v>
-      </c>
-      <c r="W5" s="11">
+      <c r="S5" s="8" t="n">
+        <v>0.382837297383124</v>
+      </c>
+      <c r="T5" s="11" t="n">
+        <v>3.6174800176618</v>
+      </c>
+      <c r="U5" s="10" t="n">
+        <v>8005.99292858782</v>
+      </c>
+      <c r="V5" s="10" t="n">
+        <v>128.656881120748</v>
+      </c>
+      <c r="W5" s="12" t="n">
         <v>192507.488633506</v>
       </c>
       <c r="X5" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="Y5" s="6">
+      <c r="Y5" s="6" t="n">
         <v>2024</v>
       </c>
       <c r="Z5" s="6" t="s">
@@ -1350,24 +1302,24 @@
       <c r="AA5" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="AB5" s="7">
-        <v>0.45497363085411241</v>
+      <c r="AB5" s="8" t="n">
+        <v>0.454973630854112</v>
       </c>
       <c r="AC5" s="6"/>
-      <c r="AD5" s="6">
+      <c r="AD5" s="6" t="n">
         <v>90000</v>
       </c>
       <c r="AE5" s="6"/>
-      <c r="AF5" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="6">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="6">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="6">
+      <c r="AF5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="6" t="n">
         <v>0</v>
       </c>
       <c r="AJ5" s="6"/>
@@ -1394,20 +1346,20 @@
       <c r="BC5" s="6"/>
       <c r="BD5" s="6"/>
     </row>
-    <row r="6" spans="1:56" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+    <row r="6" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="n">
         <v>1231201</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="6" t="n">
         <v>500007</v>
       </c>
       <c r="F6" s="6" t="s">
@@ -1428,44 +1380,44 @@
       <c r="K6" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="8" t="n">
         <v>0.27</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="N6" s="8" t="s">
+      <c r="N6" s="9" t="s">
         <v>73</v>
       </c>
       <c r="O6" s="6"/>
-      <c r="P6" s="9">
-        <v>1091.891999689564</v>
-      </c>
-      <c r="Q6" s="9">
-        <v>346.48619237581067</v>
-      </c>
-      <c r="R6" s="6">
-        <v>0</v>
-      </c>
-      <c r="S6" s="7">
-        <v>0.4045885094453992</v>
-      </c>
-      <c r="T6" s="10">
-        <v>3.4079129138785409</v>
-      </c>
-      <c r="U6" s="9">
-        <v>2932.4909690326199</v>
-      </c>
-      <c r="V6" s="9">
-        <v>136.24503431957399</v>
-      </c>
-      <c r="W6" s="11">
-        <v>718865.70503238204</v>
+      <c r="P6" s="10" t="n">
+        <v>1091.89199968956</v>
+      </c>
+      <c r="Q6" s="10" t="n">
+        <v>346.486192375811</v>
+      </c>
+      <c r="R6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="8" t="n">
+        <v>0.404588509445399</v>
+      </c>
+      <c r="T6" s="11" t="n">
+        <v>3.40791291387854</v>
+      </c>
+      <c r="U6" s="10" t="n">
+        <v>2932.49096903262</v>
+      </c>
+      <c r="V6" s="10" t="n">
+        <v>136.245034319574</v>
+      </c>
+      <c r="W6" s="12" t="n">
+        <v>718865.705032382</v>
       </c>
       <c r="X6" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="Y6" s="6">
+      <c r="Y6" s="6" t="n">
         <v>2020</v>
       </c>
       <c r="Z6" s="6" t="s">
@@ -1474,24 +1426,24 @@
       <c r="AA6" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="AB6" s="7">
-        <v>0.42491891999689568</v>
+      <c r="AB6" s="8" t="n">
+        <v>0.424918919996896</v>
       </c>
       <c r="AC6" s="6"/>
-      <c r="AD6" s="6">
+      <c r="AD6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="AE6" s="6"/>
-      <c r="AF6" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="6">
+      <c r="AF6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="AH6" s="6">
+      <c r="AH6" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="AI6" s="6">
+      <c r="AI6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="AJ6" s="6"/>
@@ -1519,6 +1471,12 @@
       <c r="BD6" s="6"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>